--- a/ONCHO/Impact Assessments/Nigeria/2023/oct/ng_oncho_stop_1_site_202310.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2023/oct/ng_oncho_stop_1_site_202310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\july\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C08CBB-33B6-4B98-AA2A-2DAE1568D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE6783D-BC2B-47DC-BC91-A5A65E502401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="166">
   <si>
     <t>type</t>
   </si>
@@ -383,184 +383,154 @@
     <t>English</t>
   </si>
   <si>
-    <t>ng_oncho_stop_1_site_202307_kano</t>
-  </si>
-  <si>
-    <t>(2023 July) - 1. (Kano) Site Form</t>
-  </si>
-  <si>
-    <t>KANO</t>
-  </si>
-  <si>
-    <t>AJINGI</t>
-  </si>
-  <si>
-    <t>ALBASU</t>
-  </si>
-  <si>
-    <t>BEBEJI</t>
-  </si>
-  <si>
-    <t>BICHI</t>
-  </si>
-  <si>
-    <t>DAMBATTA</t>
-  </si>
-  <si>
-    <t>DAWAKIN KUDU</t>
-  </si>
-  <si>
-    <t>DOGUWA</t>
-  </si>
-  <si>
-    <t>GABASAWA</t>
-  </si>
-  <si>
-    <t>GAYA</t>
-  </si>
-  <si>
-    <t>KABIYA</t>
-  </si>
-  <si>
-    <t>KARAYE</t>
-  </si>
-  <si>
-    <t>KURA</t>
-  </si>
-  <si>
-    <t>MAKODA</t>
-  </si>
-  <si>
-    <t>ROGO</t>
-  </si>
-  <si>
-    <t>SHANONO</t>
-  </si>
-  <si>
-    <t>SUMAILA</t>
-  </si>
-  <si>
-    <t>TAKAI</t>
-  </si>
-  <si>
-    <t>TSANYAWA</t>
-  </si>
-  <si>
-    <t>TUDUN WADA</t>
-  </si>
-  <si>
-    <t>TUNDUN WADA</t>
-  </si>
-  <si>
-    <t>UNGONGO</t>
-  </si>
-  <si>
-    <t>SAYASAYA</t>
-  </si>
-  <si>
-    <t>DAMAYU</t>
-  </si>
-  <si>
-    <t>GARGAI</t>
-  </si>
-  <si>
-    <t>KUKI</t>
-  </si>
-  <si>
-    <t>TARAU</t>
-  </si>
-  <si>
-    <t>KYALLI</t>
-  </si>
-  <si>
-    <t>GWADAMA GARI</t>
-  </si>
-  <si>
-    <t>ZOGARAWA</t>
-  </si>
-  <si>
-    <t>DOGON - KAWO</t>
-  </si>
-  <si>
-    <t>RAGADA</t>
-  </si>
-  <si>
-    <t>RIRIWAI</t>
-  </si>
-  <si>
-    <t>SABUWAR KAURA</t>
-  </si>
-  <si>
-    <t>YARYASA</t>
-  </si>
-  <si>
-    <t>JODA</t>
-  </si>
-  <si>
-    <t>MAGAMA</t>
-  </si>
-  <si>
-    <t>UNGUWAR GANINKI</t>
-  </si>
-  <si>
-    <t>ZAMBUR</t>
-  </si>
-  <si>
-    <t>DURBA</t>
-  </si>
-  <si>
-    <t>KURUGU</t>
-  </si>
-  <si>
-    <t>UNGUWAN WUSAMA</t>
-  </si>
-  <si>
-    <t>AZOREN WAJE</t>
-  </si>
-  <si>
-    <t>GAMADAN</t>
-  </si>
-  <si>
-    <t>KWUHA</t>
-  </si>
-  <si>
-    <t>UNGWAN BARAU</t>
-  </si>
-  <si>
-    <t>DANKWADE</t>
-  </si>
-  <si>
-    <t>FARADACHI</t>
-  </si>
-  <si>
-    <t>FARIN DUTSE</t>
-  </si>
-  <si>
-    <t>MASSU</t>
-  </si>
-  <si>
-    <t>MASU</t>
-  </si>
-  <si>
-    <t>BAGWARO</t>
-  </si>
-  <si>
-    <t>KOGO</t>
-  </si>
-  <si>
-    <t>YAMUSAWA</t>
-  </si>
-  <si>
-    <t>KWARDAGWALLE</t>
-  </si>
-  <si>
-    <t>RUGURUGU</t>
-  </si>
-  <si>
-    <t>GAZOBI</t>
-  </si>
-  <si>
-    <t>YADA KUNYA</t>
+    <t>ng_oncho_stop_1_site_202310</t>
+  </si>
+  <si>
+    <t>(2023 Oct) - 1. Site Form</t>
+  </si>
+  <si>
+    <t>OYO</t>
+  </si>
+  <si>
+    <t>AFIJIO</t>
+  </si>
+  <si>
+    <t>ATIBA</t>
+  </si>
+  <si>
+    <t>ATISBO</t>
+  </si>
+  <si>
+    <t>IBARAPA EAST</t>
+  </si>
+  <si>
+    <t>IDO</t>
+  </si>
+  <si>
+    <t>IREPO</t>
+  </si>
+  <si>
+    <t>ISEYIN</t>
+  </si>
+  <si>
+    <t>ITASEWAJU</t>
+  </si>
+  <si>
+    <t>IWAJOWA</t>
+  </si>
+  <si>
+    <t>LAGELU</t>
+  </si>
+  <si>
+    <t>OGO OLUWA</t>
+  </si>
+  <si>
+    <t>OLORUNSOGO</t>
+  </si>
+  <si>
+    <t>OLUYOLE</t>
+  </si>
+  <si>
+    <t>ORELOPE</t>
+  </si>
+  <si>
+    <t>ORI IRE</t>
+  </si>
+  <si>
+    <t>OYO EAST</t>
+  </si>
+  <si>
+    <t>SAKI EAST</t>
+  </si>
+  <si>
+    <t>SAKI WEST</t>
+  </si>
+  <si>
+    <t>IROKO</t>
+  </si>
+  <si>
+    <t>IGBOBURO</t>
+  </si>
+  <si>
+    <t>AGO ARE</t>
+  </si>
+  <si>
+    <t>OFIKI</t>
+  </si>
+  <si>
+    <t>AKERORO</t>
+  </si>
+  <si>
+    <t>OPO-OGEDE</t>
+  </si>
+  <si>
+    <t>OMI ADIO</t>
+  </si>
+  <si>
+    <t>KISI</t>
+  </si>
+  <si>
+    <t>APENPE</t>
+  </si>
+  <si>
+    <t>ODO OGUN</t>
+  </si>
+  <si>
+    <t>BALELAYO</t>
+  </si>
+  <si>
+    <t>IPAPO</t>
+  </si>
+  <si>
+    <t>OKAKA</t>
+  </si>
+  <si>
+    <t>OKE-AMU</t>
+  </si>
+  <si>
+    <t>AFANYE</t>
+  </si>
+  <si>
+    <t>ITASA</t>
+  </si>
+  <si>
+    <t>WASIMI</t>
+  </si>
+  <si>
+    <t>APATERE</t>
+  </si>
+  <si>
+    <t>IDI-ARABA</t>
+  </si>
+  <si>
+    <t>OTAMAKUN</t>
+  </si>
+  <si>
+    <t>IGBETTI</t>
+  </si>
+  <si>
+    <t>OLONDE</t>
+  </si>
+  <si>
+    <t>IGBOHO</t>
+  </si>
+  <si>
+    <t>ABUGAGA</t>
+  </si>
+  <si>
+    <t>ALADERE</t>
+  </si>
+  <si>
+    <t>ELEJA</t>
+  </si>
+  <si>
+    <t>SEPETERI</t>
+  </si>
+  <si>
+    <t>BUDI IGE</t>
+  </si>
+  <si>
+    <t>IGA IYERE</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1478,11 +1448,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120:A121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2033,46 +2003,46 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" t="s">
-        <v>118</v>
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
         <v>139</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="D45" t="s">
-        <v>118</v>
+      <c r="E46" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2080,13 +2050,13 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2094,13 +2064,13 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2108,13 +2078,13 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2122,13 +2092,13 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2136,13 +2106,13 @@
         <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2150,13 +2120,13 @@
         <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2164,13 +2134,13 @@
         <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2178,13 +2148,13 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2192,13 +2162,13 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2206,13 +2176,13 @@
         <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2220,13 +2190,13 @@
         <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2234,13 +2204,13 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2248,13 +2218,13 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2262,13 +2232,13 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2276,13 +2246,13 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2290,13 +2260,13 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2304,13 +2274,13 @@
         <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2318,279 +2288,279 @@
         <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" t="s">
-        <v>167</v>
-      </c>
-      <c r="C75" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" t="s">
-        <v>170</v>
-      </c>
-      <c r="C78" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" t="s">
-        <v>172</v>
-      </c>
-      <c r="E80" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74">
+        <v>101</v>
+      </c>
+      <c r="C74">
+        <v>101</v>
+      </c>
+      <c r="F74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75">
+        <v>102</v>
+      </c>
+      <c r="C75">
+        <v>102</v>
+      </c>
+      <c r="F75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>103</v>
+      </c>
+      <c r="C76">
+        <v>103</v>
+      </c>
+      <c r="F76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77">
+        <v>104</v>
+      </c>
+      <c r="C77">
+        <v>104</v>
+      </c>
+      <c r="F77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78">
+        <v>105</v>
+      </c>
+      <c r="C78">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79">
+        <v>106</v>
+      </c>
+      <c r="C79">
+        <v>106</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80">
+        <v>107</v>
+      </c>
+      <c r="C80">
+        <v>107</v>
+      </c>
+      <c r="F80" t="s">
+        <v>143</v>
+      </c>
+    </row>
     <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" t="s">
-        <v>137</v>
+      <c r="A81" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81">
+        <v>108</v>
+      </c>
+      <c r="C81">
+        <v>108</v>
+      </c>
+      <c r="F81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" t="s">
-        <v>174</v>
-      </c>
-      <c r="C82" t="s">
-        <v>174</v>
-      </c>
-      <c r="E82" t="s">
-        <v>138</v>
+      <c r="A82" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82">
+        <v>109</v>
+      </c>
+      <c r="C82">
+        <v>109</v>
+      </c>
+      <c r="F82" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" t="s">
-        <v>175</v>
-      </c>
-      <c r="E83" t="s">
-        <v>139</v>
+      <c r="A83" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>110</v>
+      </c>
+      <c r="C83">
+        <v>110</v>
+      </c>
+      <c r="F83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84">
+        <v>111</v>
+      </c>
+      <c r="C84">
+        <v>111</v>
+      </c>
+      <c r="F84" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2598,13 +2568,13 @@
         <v>111</v>
       </c>
       <c r="B85">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="C85">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="F85" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2612,13 +2582,13 @@
         <v>111</v>
       </c>
       <c r="B86">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c r="C86">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2626,13 +2596,13 @@
         <v>111</v>
       </c>
       <c r="B87">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="C87">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="F87" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2640,13 +2610,13 @@
         <v>111</v>
       </c>
       <c r="B88">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="C88">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2654,13 +2624,13 @@
         <v>111</v>
       </c>
       <c r="B89">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="C89">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="F89" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2668,13 +2638,13 @@
         <v>111</v>
       </c>
       <c r="B90">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="C90">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2682,13 +2652,13 @@
         <v>111</v>
       </c>
       <c r="B91">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c r="C91">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c r="F91" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2696,13 +2666,13 @@
         <v>111</v>
       </c>
       <c r="B92">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="C92">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="F92" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2710,13 +2680,13 @@
         <v>111</v>
       </c>
       <c r="B93">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="C93">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2724,13 +2694,13 @@
         <v>111</v>
       </c>
       <c r="B94">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="C94">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="F94" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2738,13 +2708,13 @@
         <v>111</v>
       </c>
       <c r="B95">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="C95">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="F95" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2752,13 +2722,13 @@
         <v>111</v>
       </c>
       <c r="B96">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="C96">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="F96" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2766,13 +2736,13 @@
         <v>111</v>
       </c>
       <c r="B97">
-        <v>313</v>
+        <v>124</v>
       </c>
       <c r="C97">
-        <v>313</v>
+        <v>124</v>
       </c>
       <c r="F97" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2780,13 +2750,13 @@
         <v>111</v>
       </c>
       <c r="B98">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="C98">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2794,13 +2764,13 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>315</v>
+        <v>126</v>
       </c>
       <c r="C99">
-        <v>315</v>
+        <v>126</v>
       </c>
       <c r="F99" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2808,13 +2778,13 @@
         <v>111</v>
       </c>
       <c r="B100">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="C100">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="F100" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2822,13 +2792,13 @@
         <v>111</v>
       </c>
       <c r="B101">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="C101">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2836,285 +2806,19 @@
         <v>111</v>
       </c>
       <c r="B102">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="C102">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="F102" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103">
-        <v>319</v>
-      </c>
-      <c r="C103">
-        <v>319</v>
-      </c>
-      <c r="F103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B104">
-        <v>320</v>
-      </c>
-      <c r="C104">
-        <v>320</v>
-      </c>
-      <c r="F104" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105">
-        <v>321</v>
-      </c>
-      <c r="C105">
-        <v>321</v>
-      </c>
-      <c r="F105" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106">
-        <v>322</v>
-      </c>
-      <c r="C106">
-        <v>322</v>
-      </c>
-      <c r="F106" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107">
-        <v>323</v>
-      </c>
-      <c r="C107">
-        <v>323</v>
-      </c>
-      <c r="F107" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108">
-        <v>324</v>
-      </c>
-      <c r="C108">
-        <v>324</v>
-      </c>
-      <c r="F108" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109">
-        <v>325</v>
-      </c>
-      <c r="C109">
-        <v>325</v>
-      </c>
-      <c r="F109" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110">
-        <v>326</v>
-      </c>
-      <c r="C110">
-        <v>326</v>
-      </c>
-      <c r="F110" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>327</v>
-      </c>
-      <c r="C111">
-        <v>327</v>
-      </c>
-      <c r="F111" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>328</v>
-      </c>
-      <c r="C112">
-        <v>328</v>
-      </c>
-      <c r="F112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>329</v>
-      </c>
-      <c r="C113">
-        <v>329</v>
-      </c>
-      <c r="F113" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114">
-        <v>330</v>
-      </c>
-      <c r="C114">
-        <v>330</v>
-      </c>
-      <c r="F114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B115">
-        <v>331</v>
-      </c>
-      <c r="C115">
-        <v>331</v>
-      </c>
-      <c r="F115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116">
-        <v>332</v>
-      </c>
-      <c r="C116">
-        <v>332</v>
-      </c>
-      <c r="F116" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B117">
-        <v>333</v>
-      </c>
-      <c r="C117">
-        <v>333</v>
-      </c>
-      <c r="F117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B118">
-        <v>334</v>
-      </c>
-      <c r="C118">
-        <v>334</v>
-      </c>
-      <c r="F118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B119">
-        <v>335</v>
-      </c>
-      <c r="C119">
-        <v>335</v>
-      </c>
-      <c r="F119" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B120">
-        <v>336</v>
-      </c>
-      <c r="C120">
-        <v>336</v>
-      </c>
-      <c r="F120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B121">
-        <v>337</v>
-      </c>
-      <c r="C121">
-        <v>337</v>
-      </c>
-      <c r="F121" t="s">
-        <v>171</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:E58">
-    <sortCondition ref="A51:A58"/>
-    <sortCondition ref="E51:E58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:E55">
+    <sortCondition ref="A48:A55"/>
+    <sortCondition ref="E48:E55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
